--- a/7/1/1/1/Series originales 1996 a 2021 - Mensual.xlsx
+++ b/7/1/1/1/Series originales 1996 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="317">
   <si>
     <t>Serie</t>
   </si>
@@ -962,6 +962,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1322,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J307"/>
+  <dimension ref="A1:J308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10962,22 +10965,22 @@
         <v>310</v>
       </c>
       <c r="B302">
-        <v>106.8</v>
+        <v>106.7</v>
       </c>
       <c r="C302">
-        <v>107</v>
+        <v>107.1</v>
       </c>
       <c r="D302">
-        <v>96.09999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="E302">
-        <v>104.1</v>
+        <v>104.3</v>
       </c>
       <c r="F302">
-        <v>119.9</v>
+        <v>120.3</v>
       </c>
       <c r="G302">
-        <v>130.2</v>
+        <v>129.5</v>
       </c>
       <c r="H302">
         <v>100.9</v>
@@ -10994,31 +10997,31 @@
         <v>311</v>
       </c>
       <c r="B303">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="C303">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="D303">
-        <v>88.7</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E303">
-        <v>101</v>
+        <v>101.7</v>
       </c>
       <c r="F303">
-        <v>122.2</v>
+        <v>122.8</v>
       </c>
       <c r="G303">
-        <v>127.5</v>
+        <v>126.4</v>
       </c>
       <c r="H303">
-        <v>97.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="I303">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="J303">
-        <v>106.1</v>
+        <v>106.3</v>
       </c>
     </row>
     <row r="304" spans="1:10">
@@ -11026,31 +11029,31 @@
         <v>312</v>
       </c>
       <c r="B304">
-        <v>120</v>
+        <v>120.5</v>
       </c>
       <c r="C304">
-        <v>113.9</v>
+        <v>115.1</v>
       </c>
       <c r="D304">
-        <v>100.6</v>
+        <v>101.4</v>
       </c>
       <c r="E304">
-        <v>112.5</v>
+        <v>114</v>
       </c>
       <c r="F304">
-        <v>127.9</v>
+        <v>129.2</v>
       </c>
       <c r="G304">
-        <v>143.2</v>
+        <v>143</v>
       </c>
       <c r="H304">
-        <v>118.6</v>
+        <v>118.9</v>
       </c>
       <c r="I304">
-        <v>119.2</v>
+        <v>119.8</v>
       </c>
       <c r="J304">
-        <v>122.6</v>
+        <v>123</v>
       </c>
     </row>
     <row r="305" spans="1:10">
@@ -11058,31 +11061,31 @@
         <v>313</v>
       </c>
       <c r="B305">
-        <v>112.3</v>
+        <v>112.8</v>
       </c>
       <c r="C305">
-        <v>102</v>
+        <v>103.2</v>
       </c>
       <c r="D305">
-        <v>97.2</v>
+        <v>98.3</v>
       </c>
       <c r="E305">
-        <v>105.9</v>
+        <v>107.5</v>
       </c>
       <c r="F305">
-        <v>103.4</v>
+        <v>104.6</v>
       </c>
       <c r="G305">
-        <v>124.4</v>
+        <v>124.3</v>
       </c>
       <c r="H305">
         <v>117.9</v>
       </c>
       <c r="I305">
-        <v>112.3</v>
+        <v>112.8</v>
       </c>
       <c r="J305">
-        <v>114.3</v>
+        <v>114.7</v>
       </c>
     </row>
     <row r="306" spans="1:10">
@@ -11090,31 +11093,31 @@
         <v>314</v>
       </c>
       <c r="B306">
-        <v>115.5</v>
+        <v>116.6</v>
       </c>
       <c r="C306">
-        <v>102.1</v>
+        <v>103.7</v>
       </c>
       <c r="D306">
-        <v>99</v>
+        <v>100.7</v>
       </c>
       <c r="E306">
-        <v>107</v>
+        <v>108.6</v>
       </c>
       <c r="F306">
-        <v>101.2</v>
+        <v>102.5</v>
       </c>
       <c r="G306">
-        <v>135.6</v>
+        <v>134.6</v>
       </c>
       <c r="H306">
-        <v>119.4</v>
+        <v>120.6</v>
       </c>
       <c r="I306">
-        <v>114.2</v>
+        <v>115.3</v>
       </c>
       <c r="J306">
-        <v>117.7</v>
+        <v>118.6</v>
       </c>
     </row>
     <row r="307" spans="1:10">
@@ -11122,31 +11125,63 @@
         <v>315</v>
       </c>
       <c r="B307">
-        <v>115.5</v>
+        <v>115.9</v>
       </c>
       <c r="C307">
-        <v>100.1</v>
+        <v>101.2</v>
       </c>
       <c r="D307">
-        <v>98</v>
+        <v>100.2</v>
       </c>
       <c r="E307">
-        <v>107.6</v>
+        <v>108.4</v>
       </c>
       <c r="F307">
-        <v>96</v>
+        <v>96.3</v>
       </c>
       <c r="G307">
-        <v>132.2</v>
+        <v>130.9</v>
       </c>
       <c r="H307">
-        <v>121.9</v>
+        <v>122.2</v>
       </c>
       <c r="I307">
-        <v>114.4</v>
+        <v>114.8</v>
       </c>
       <c r="J307">
-        <v>117.8</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10">
+      <c r="A308" t="s">
+        <v>316</v>
+      </c>
+      <c r="B308">
+        <v>113.5</v>
+      </c>
+      <c r="C308">
+        <v>100.6</v>
+      </c>
+      <c r="D308">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E308">
+        <v>107.5</v>
+      </c>
+      <c r="F308">
+        <v>95.7</v>
+      </c>
+      <c r="G308">
+        <v>135.3</v>
+      </c>
+      <c r="H308">
+        <v>115.3</v>
+      </c>
+      <c r="I308">
+        <v>111.5</v>
+      </c>
+      <c r="J308">
+        <v>115.2</v>
       </c>
     </row>
   </sheetData>

--- a/7/1/1/1/Series originales 1996 a 2021 - Mensual.xlsx
+++ b/7/1/1/1/Series originales 1996 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="318">
   <si>
     <t>Serie</t>
   </si>
@@ -965,6 +965,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1322,7 +1325,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J308"/>
+  <dimension ref="A1:J309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11184,6 +11187,38 @@
         <v>115.2</v>
       </c>
     </row>
+    <row r="309" spans="1:10">
+      <c r="A309" t="s">
+        <v>317</v>
+      </c>
+      <c r="B309">
+        <v>120.3</v>
+      </c>
+      <c r="C309">
+        <v>101.9</v>
+      </c>
+      <c r="D309">
+        <v>102.1</v>
+      </c>
+      <c r="E309">
+        <v>110.2</v>
+      </c>
+      <c r="F309">
+        <v>95</v>
+      </c>
+      <c r="G309">
+        <v>137.9</v>
+      </c>
+      <c r="H309">
+        <v>127.8</v>
+      </c>
+      <c r="I309">
+        <v>118.6</v>
+      </c>
+      <c r="J309">
+        <v>122.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/7/1/1/1/Series originales 1996 a 2021 - Mensual.xlsx
+++ b/7/1/1/1/Series originales 1996 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
   <si>
     <t>Serie</t>
   </si>
@@ -968,6 +968,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1328,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J309"/>
+  <dimension ref="A1:J310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11219,6 +11222,38 @@
         <v>122.8</v>
       </c>
     </row>
+    <row r="310" spans="1:10">
+      <c r="A310" t="s">
+        <v>318</v>
+      </c>
+      <c r="B310">
+        <v>119.2</v>
+      </c>
+      <c r="C310">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="D310">
+        <v>96.2</v>
+      </c>
+      <c r="E310">
+        <v>108.8</v>
+      </c>
+      <c r="F310">
+        <v>94.2</v>
+      </c>
+      <c r="G310">
+        <v>135.4</v>
+      </c>
+      <c r="H310">
+        <v>128.7</v>
+      </c>
+      <c r="I310">
+        <v>117.7</v>
+      </c>
+      <c r="J310">
+        <v>122.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
